--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3642468.829743294</v>
+        <v>3640581.248226891</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>582489.0881430218</v>
+        <v>700688.4653519493</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>46.33048760721872</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>169.3371101986598</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>155.3197306044668</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>284.5615160058696</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>303.3161070162536</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>52.10844059186275</v>
       </c>
       <c r="J7" t="n">
-        <v>33.84234274505293</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>26.53815412835747</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>310.2076895021008</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>70.80276983270126</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113159</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>70.13531873829635</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>3.416105766198341</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.843519215191</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>211.2541671901478</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>172.7067178467369</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985774</v>
+        <v>183.179675846701</v>
       </c>
       <c r="V22" t="n">
-        <v>169.7438101404418</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.4653217847145</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>183.1796758466999</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750046</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>109.138567227953</v>
+        <v>124.6287235533805</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>93.41221638965554</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>65.55170367592434</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437443</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348208</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>93.71057173897931</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571494</v>
+        <v>55.21598883571515</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.76109577523596</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952712</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080342</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.381396723538</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463127</v>
+        <v>42.28735533463128</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>41.83246227415208</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3250,7 +3250,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
         <v>150.4527632224541</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.304160219349</v>
+        <v>490.5728759019127</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>121.610358961501</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>121.610358961501</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>121.610358961501</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>114.6648582122975</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>100.7414541508884</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2471.072815489463</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2471.072815489463</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2471.072815489463</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2471.072815489463</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2118.304160219349</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>2118.304160219349</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>2118.304160219349</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.381229508782</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>1496.41871256837</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1138.15301396162</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>752.3647613633757</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>341.3788565737681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4601,16 +4601,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2335.740495471692</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1982.971840201577</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1609.506081940498</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572904</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.0633493392339</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>88.12716641132701</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>88.12716641132701</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>88.12716641132701</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F7" t="n">
-        <v>88.12716641132701</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G7" t="n">
-        <v>88.12716641132701</v>
+        <v>264.3261428644633</v>
       </c>
       <c r="H7" t="n">
-        <v>88.12716641132701</v>
+        <v>106.5777702969935</v>
       </c>
       <c r="I7" t="n">
-        <v>88.12716641132701</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
         <v>864.6405432696254</v>
@@ -4793,61 +4793,61 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2339.279987383381</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1986.511332113267</v>
+        <v>2383.80799051105</v>
       </c>
       <c r="X8" t="n">
-        <v>1613.045573852188</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="Y8" t="n">
-        <v>1222.906241876376</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>125.4609311463253</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805454</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171746</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1479.482307609636</v>
+        <v>1847.655958041207</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.893885873787</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.3450129705745</v>
+        <v>468.5954956259877</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3450129705745</v>
+        <v>468.5954956259877</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705745</v>
+        <v>318.478856213652</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705745</v>
+        <v>318.478856213652</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609657</v>
       </c>
       <c r="V13" t="n">
-        <v>933.2366688293932</v>
+        <v>986.0022165609657</v>
       </c>
       <c r="W13" t="n">
-        <v>929.7860569443444</v>
+        <v>696.5850465240051</v>
       </c>
       <c r="X13" t="n">
-        <v>929.7860569443444</v>
+        <v>468.5954956259877</v>
       </c>
       <c r="Y13" t="n">
-        <v>708.9934778008143</v>
+        <v>468.5954956259877</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5297,7 +5297,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5355,16 +5355,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N15" t="n">
         <v>2623.573505376138</v>
@@ -5413,70 +5413,70 @@
         <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011509</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952639</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028587</v>
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,19 +5525,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,19 +5589,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387593</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011508</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952639</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5747,37 +5747,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>417.5524109899876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765183</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>835.4163915387938</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578673</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>800.68370970772</v>
       </c>
       <c r="V25" t="n">
-        <v>835.4163915387937</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018332</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
         <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011504</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952636</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>325.206642358303</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6455,25 +6455,25 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,10 +6482,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578673</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>455.1790525051547</v>
+        <v>611.7611155708613</v>
       </c>
       <c r="C31" t="n">
-        <v>342.0037348586186</v>
+        <v>611.7611155708613</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6479607276536</v>
+        <v>517.4053414398961</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6479607276536</v>
+        <v>451.1914993430028</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276536</v>
+        <v>360.0624171264629</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>247.6479607276541</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569679</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933497</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667502</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962041</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021645</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056072</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899268</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096191</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167067</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661996</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.33673373748</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818931</v>
+        <v>902.68042898189</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652466</v>
+        <v>902.68042898189</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.420029503087</v>
+        <v>737.6487151197305</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>334.288126757867</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,7 +6859,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649693</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6935,13 +6935,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,31 +6950,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605669</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229678</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525401</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7160,31 +7160,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7193,31 +7193,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,10 +7485,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
         <v>508.1073603047985</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
         <v>559.3441472229676</v>
@@ -7552,28 +7552,28 @@
         <v>478.047598850673</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083209</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,7 +7600,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045212</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010321</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,10 +7722,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
         <v>508.1073603047985</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.288612901031</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849284</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>75.2857292846349</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>283.1068925703927</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338642</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>75.2688311464432</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,16 +23938,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>79.43092547709108</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>103.0576765518763</v>
       </c>
       <c r="V22" t="n">
-        <v>82.39383318338619</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,19 +24412,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>14.45548819888869</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338454</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338517</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.49015632542728</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.043564470071</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>25.679002342088</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604804</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>711938.7403542229</v>
+        <v>711938.7403542228</v>
       </c>
     </row>
     <row r="12">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409907</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="G2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="H2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="I2" t="n">
         <v>684300.8545409907</v>
       </c>
-      <c r="H2" t="n">
-        <v>684300.8545409908</v>
-      </c>
-      <c r="I2" t="n">
-        <v>684300.8545409904</v>
-      </c>
       <c r="J2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="K2" t="n">
-        <v>711938.7403542236</v>
+        <v>711938.7403542235</v>
       </c>
       <c r="L2" t="n">
-        <v>718411.5486312489</v>
+        <v>718411.5486312485</v>
       </c>
       <c r="M2" t="n">
         <v>718411.5486312485</v>
       </c>
       <c r="N2" t="n">
-        <v>718411.5486312485</v>
+        <v>718411.5486312488</v>
       </c>
       <c r="O2" t="n">
         <v>718411.5486312486</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,40 +26372,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.897497092315462e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.6053028454</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086692</v>
+        <v>10342.9068008671</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284538</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758299</v>
+        <v>787.7936905759493</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905758438</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758811</v>
+        <v>787.7936905758477</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758888</v>
+        <v>787.7936905758373</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758438</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.4162047724</v>
+        <v>18952.41620477232</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189632</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189635</v>
@@ -26473,28 +26473,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
@@ -26503,13 +26503,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93474.54782732503</v>
+        <v>-93474.54782732524</v>
       </c>
       <c r="C6" t="n">
-        <v>496493.3313872195</v>
+        <v>496493.3313872194</v>
       </c>
       <c r="D6" t="n">
-        <v>496493.3313872196</v>
+        <v>496493.3313872192</v>
       </c>
       <c r="E6" t="n">
-        <v>66365.69842480181</v>
+        <v>66268.23929883014</v>
       </c>
       <c r="F6" t="n">
-        <v>591525.7349016981</v>
+        <v>591428.2757757253</v>
       </c>
       <c r="G6" t="n">
-        <v>591525.7349016982</v>
+        <v>591428.2757757257</v>
       </c>
       <c r="H6" t="n">
-        <v>591525.7349016983</v>
+        <v>591428.2757757257</v>
       </c>
       <c r="I6" t="n">
-        <v>591525.734901698</v>
+        <v>591428.2757757261</v>
       </c>
       <c r="J6" t="n">
-        <v>415102.5157091051</v>
+        <v>415005.0565831327</v>
       </c>
       <c r="K6" t="n">
-        <v>552195.5103163829</v>
+        <v>552177.0165784487</v>
       </c>
       <c r="L6" t="n">
-        <v>587146.9550784602</v>
+        <v>587146.9550784597</v>
       </c>
       <c r="M6" t="n">
-        <v>462688.8466454896</v>
+        <v>462688.8466454897</v>
       </c>
       <c r="N6" t="n">
-        <v>597489.8618793268</v>
+        <v>597489.8618793271</v>
       </c>
       <c r="O6" t="n">
         <v>597489.8618793269</v>
       </c>
       <c r="P6" t="n">
-        <v>553327.2565764813</v>
+        <v>553327.2565764815</v>
       </c>
     </row>
   </sheetData>
@@ -26701,28 +26701,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26923,19 +26923,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108365</v>
+        <v>12.92863350108388</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855673</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855676</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>277.5922851571384</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>5.078602610311719</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458411</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>129.2226540149254</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>24.43615145388128</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>82.85718120047548</v>
       </c>
       <c r="J7" t="n">
-        <v>11.35761644348408</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>189.9101662293003</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>39.03327921531223</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>64.16285195963697</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.762145984685048e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.515870327259277e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31355,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>409.4103115654733</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>91.84465193776663</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,22 +32072,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>380.6284621420183</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,22 +32309,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O21" t="n">
-        <v>340.8546090773502</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>91.84465193776663</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>380.6284621420183</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,34 +33731,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33998,10 +33998,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,25 +34120,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L41" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,7 +34217,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
         <v>392.6063366508803</v>
@@ -34235,10 +34235,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,25 +34357,25 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L44" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,7 +34454,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
         <v>392.6063366508803</v>
@@ -34472,10 +34472,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>732.9813413934548</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>343.1107267700517</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>704.1994919699999</v>
       </c>
       <c r="N15" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O21" t="n">
-        <v>592.1206839096353</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>343.1107267700517</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197792</v>
+        <v>704.1994919699999</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412236</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584674</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084854</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075293</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043159</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,10 +37628,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>740.6069989111005</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414415</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>740.6069989111005</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
